--- a/preprocessing_scripts/TotalDashboardScoresEfficiencyAnalaysis.xlsx
+++ b/preprocessing_scripts/TotalDashboardScoresEfficiencyAnalaysis.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Time_Difference_Dashboard_vs_Feedback</t>
+          <t>Time_Difference_Dashboard</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
